--- a/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
+++ b/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>区县编码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>区县名称</t>
   </si>
@@ -38,16 +35,16 @@
     <t>年份</t>
   </si>
   <si>
+    <t>企业名称</t>
+  </si>
+  <si>
     <t>开发区名称</t>
   </si>
   <si>
     <t>社会统一信用代码</t>
   </si>
   <si>
-    <t>企业名称</t>
-  </si>
-  <si>
-    <t>占地面积（亩）</t>
+    <t>占地面积（公顷）</t>
   </si>
   <si>
     <t>坐落</t>
@@ -59,25 +56,34 @@
     <t>上上年度亩均税收</t>
   </si>
   <si>
-    <t>是否规上企业</t>
-  </si>
-  <si>
-    <t>目前进展</t>
-  </si>
-  <si>
     <t>企业经营状态</t>
   </si>
   <si>
     <t>现状用途</t>
   </si>
   <si>
-    <t>处置类型</t>
-  </si>
-  <si>
-    <t>认定标准</t>
-  </si>
-  <si>
-    <t>处置标准</t>
+    <t>低效类型</t>
+  </si>
+  <si>
+    <t>处置方式</t>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>详细进展</t>
+  </si>
+  <si>
+    <t>处置面积（公顷）</t>
+  </si>
+  <si>
+    <t>计划实施单位</t>
+  </si>
+  <si>
+    <t>问题详细描述</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -699,8 +705,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1231,20 +1240,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="9" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,26 +1285,32 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
+++ b/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
@@ -56,9 +56,6 @@
     <t>上上年度亩均税收</t>
   </si>
   <si>
-    <t>企业经营状态</t>
-  </si>
-  <si>
     <t>现状用途</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>计划实施单位</t>
+  </si>
+  <si>
+    <t>问题类型</t>
   </si>
   <si>
     <t>问题详细描述</t>
@@ -705,11 +705,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1243,15 +1240,19 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="9" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="9" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
+    <col min="16" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1285,35 +1286,49 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"效率低下,停工停产,未开工建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"政府收储,产出提升,企业被兼并,关停淘汰,用地转让"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"未实施,正在实施,已处置"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
+      <formula1>"问题类型1,问题类型2"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
+++ b/land_InefficilentLandUse_main/src/main/webapp/assets/plan/低效企业导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="10065" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>社会统一信用代码</t>
   </si>
   <si>
-    <t>占地面积（公顷）</t>
+    <t>占地面积（亩）</t>
   </si>
   <si>
     <t>坐落</t>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
